--- a/Get_Properties_Notebook-WI/gp_start_folder/pyrdz_atom_map.xlsx
+++ b/Get_Properties_Notebook-WI/gp_start_folder/pyrdz_atom_map.xlsx
@@ -14,27 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>log_name</t>
   </si>
   <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
     <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
-    <t>C1</t>
   </si>
   <si>
     <t>pyrdz1_conf-1</t>
@@ -419,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,109 +453,139 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Get_Properties_Notebook-WI/gp_start_folder/pyrdz_atom_map.xlsx
+++ b/Get_Properties_Notebook-WI/gp_start_folder/pyrdz_atom_map.xlsx
@@ -22,18 +22,18 @@
     <t>C3</t>
   </si>
   <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
     <t>C4</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
@@ -55,19 +55,19 @@
     <t>pyrdz1_conf-4</t>
   </si>
   <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
     <t>C16</t>
   </si>
   <si>
     <t>C17</t>
-  </si>
-  <si>
-    <t>N5</t>
-  </si>
-  <si>
-    <t>N6</t>
-  </si>
-  <si>
-    <t>C7</t>
   </si>
 </sst>
 </file>
@@ -468,13 +468,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -489,7 +489,7 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -500,13 +500,13 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -521,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,13 +532,13 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -553,7 +553,7 @@
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -564,13 +564,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -585,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
